--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/财务费用.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/财务费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>29.89976</v>
-      </c>
-      <c r="C2" t="n">
-        <v>89.18828000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.2338</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.008829999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.52319</v>
-      </c>
-      <c r="G2" t="n">
-        <v>93.6481</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.98018</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23.89027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.63459</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1228.77154</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.51972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.93888</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.21057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>42.02796</v>
-      </c>
-      <c r="P2" t="n">
-        <v>53.15397</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7.67158</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.92822</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.00789</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.30219</v>
-      </c>
-      <c r="U2" t="n">
-        <v>8.524990000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>19.72073</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.55926</v>
-      </c>
-      <c r="X2" t="n">
-        <v>34.68048</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>260.74282</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>44.21081</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>30.98402</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.02268</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>50.89884</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>51.49431</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>51.64349</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.286440000000001</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>19.24901</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9.064439999999999</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>48.51993</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4.69001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>10.99864</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>30.92543</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>17.96215</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>108.86401</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.13846</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25.52717</v>
-      </c>
-      <c r="C3" t="n">
-        <v>77.36177000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.12628</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00209</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.40811</v>
-      </c>
-      <c r="G3" t="n">
-        <v>88.76248</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.70889</v>
-      </c>
-      <c r="I3" t="n">
-        <v>24.00075</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.02047</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1170.0553</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.64848</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.85054</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.49704</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41.42626</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37.72182</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.99422</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.61619</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.90854</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.03474</v>
-      </c>
-      <c r="U3" t="n">
-        <v>10.17953</v>
-      </c>
-      <c r="V3" t="n">
-        <v>31.01576</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.54024</v>
-      </c>
-      <c r="X3" t="n">
-        <v>42.2454</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>322.85624</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>40.28946</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>28.47517</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.7133</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>49.16427</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>25.52744</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>39.21751</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.469659999999999</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>17.20967</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.855169999999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>38.34924</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.48645</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>9.00076</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>22.98871</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>16.57493</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>87.44141999999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.34112</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>23.70621</v>
-      </c>
-      <c r="C4" t="n">
-        <v>72.24982</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.15317</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00153</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.05307</v>
-      </c>
-      <c r="G4" t="n">
-        <v>89.62996</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.04606</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24.8166</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.64047</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1201.26636</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.72184</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.38934</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.32658</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36.97543</v>
-      </c>
-      <c r="P4" t="n">
-        <v>38.62204</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.17785</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.96772</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.74214</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.26589</v>
-      </c>
-      <c r="U4" t="n">
-        <v>9.4381</v>
-      </c>
-      <c r="V4" t="n">
-        <v>28.20397</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.49055</v>
-      </c>
-      <c r="X4" t="n">
-        <v>51.60359</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>352.91625</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>42.46617</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26.10539</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.27271</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>53.64494</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>24.00956</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>34.24368</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12.44823</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19.28313</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.77262</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>35.92114</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.46928</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>10.31517</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19.53918</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>16.21048</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>98.65035</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.13017</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
